--- a/data/285_P_features_case.xlsx
+++ b/data/285_P_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,3866 +528,3362 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9930135592105263</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.233587152777777</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0005965921782220395</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003261210606668129</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.790509028223683e-07</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03640040407894737</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.923545156490133e-06</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003442992668582967</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1972324912280702</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001078761139947003</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.169703820723683e-05</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.001093957874906615</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.007441725709064e-06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.539980336589912e-06</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.360333375529969e-05</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.001425231069936221</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1020.770274017869</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.009349799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9934797753289474</v>
+        <v>0.9930135592105263</v>
       </c>
       <c r="B3" t="n">
-        <v>8.18479667397661</v>
+        <v>4.233587152777777</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0009990862458717105</v>
+        <v>-0.0005965921782220395</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006391488328110381</v>
+        <v>0.003261210606668129</v>
       </c>
       <c r="E3" t="n">
-        <v>8.025360224671051e-07</v>
+        <v>-2.790509028223683e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06074405782894737</v>
+        <v>0.03640040407894737</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.019347205263158e-06</v>
+        <v>-3.923545156490133e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001201878158212518</v>
+        <v>0.0003442992668582967</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6069335219298245</v>
+        <v>0.1972324912280702</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001939980573530702</v>
+        <v>0.0001078761139947003</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0001762643069156433</v>
+        <v>-7.169703820723683e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.004478271650264986</v>
+        <v>-0.001093957874906615</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.349822908006213e-05</v>
+        <v>-7.007441725709064e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.12242395534375e-05</v>
+        <v>1.539980336589912e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001698600749580958</v>
+        <v>-1.360333375529969e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.005249809838560123</v>
+        <v>-0.001425231069936221</v>
       </c>
       <c r="Q3" t="n">
-        <v>1049.192736040705</v>
+        <v>1020.770274017869</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0187</v>
+        <v>0.009349799999999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9941010513157894</v>
+        <v>0.9934797753289474</v>
       </c>
       <c r="B4" t="n">
-        <v>11.53403313230994</v>
+        <v>8.18479667397661</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.001802548113547149</v>
+        <v>-0.0009990862458717105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00872098727170139</v>
+        <v>0.006391488328110381</v>
       </c>
       <c r="E4" t="n">
-        <v>1.648428915421053e-06</v>
+        <v>8.025360224671051e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06954765914473683</v>
+        <v>0.06074405782894737</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.139702416118287e-07</v>
+        <v>-2.019347205263158e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001827013162403143</v>
+        <v>0.001201878158212518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.93266564875731</v>
+        <v>0.6069335219298245</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000233334071380117</v>
+        <v>0.0001939980573530702</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0002461304992203969</v>
+        <v>-0.0001762643069156433</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.006139412674820906</v>
+        <v>-0.004478271650264986</v>
       </c>
       <c r="M4" t="n">
-        <v>-4.706869197876462e-05</v>
+        <v>-2.349822908006213e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.255369677918494e-05</v>
+        <v>1.12242395534375e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0003417013606761696</v>
+        <v>0.0001698600749580958</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.00945172260858918</v>
+        <v>-0.005249809838560123</v>
       </c>
       <c r="Q4" t="n">
-        <v>1085.879587659832</v>
+        <v>1049.192736040705</v>
       </c>
       <c r="R4" t="n">
-        <v>0.028049</v>
+        <v>0.0187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9947330006578947</v>
+        <v>0.9941010513157894</v>
       </c>
       <c r="B5" t="n">
-        <v>14.16329682017544</v>
+        <v>11.53403313230994</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.001471442412919408</v>
+        <v>-0.001802548113547149</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01049931883297332</v>
+        <v>0.00872098727170139</v>
       </c>
       <c r="E5" t="n">
-        <v>2.37166186499342e-06</v>
+        <v>1.648428915421053e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06429233725328948</v>
+        <v>0.06954765914473683</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.823986523519737e-06</v>
+        <v>-6.139702416118287e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002391757117602321</v>
+        <v>0.001827013162403143</v>
       </c>
       <c r="I5" t="n">
-        <v>1.013881498538012</v>
+        <v>0.93266564875731</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001814442610270468</v>
+        <v>0.000233334071380117</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.00044286448360964</v>
+        <v>-0.0002461304992203969</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.003754589026620248</v>
+        <v>-0.006139412674820906</v>
       </c>
       <c r="M5" t="n">
-        <v>-7.705385967909357e-05</v>
+        <v>-4.706869197876462e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.271020270952118e-06</v>
+        <v>1.255369677918494e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.000570055246558388</v>
+        <v>0.0003417013606761696</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01203017657450566</v>
+        <v>-0.00945172260858918</v>
       </c>
       <c r="Q5" t="n">
-        <v>1121.954311499797</v>
+        <v>1085.879587659832</v>
       </c>
       <c r="R5" t="n">
-        <v>0.037399</v>
+        <v>0.028049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9953465789473686</v>
+        <v>0.9947330006578947</v>
       </c>
       <c r="B6" t="n">
-        <v>16.28943326023392</v>
+        <v>14.16329682017544</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.001499454810148026</v>
+        <v>-0.001471442412919408</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01326224774913926</v>
+        <v>0.01049931883297332</v>
       </c>
       <c r="E6" t="n">
-        <v>2.379750653253288e-06</v>
+        <v>2.37166186499342e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05577141490131579</v>
+        <v>0.06429233725328948</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.890072814638159e-06</v>
+        <v>-3.823986523519737e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002668404349331323</v>
+        <v>0.002391757117602321</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9740626425438597</v>
+        <v>1.013881498538012</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.852302182017431e-06</v>
+        <v>0.0001814442610270468</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0005851467445599415</v>
+        <v>-0.00044286448360964</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.002716691307469116</v>
+        <v>-0.003754589026620248</v>
       </c>
       <c r="M6" t="n">
-        <v>-8.574030738998539e-05</v>
+        <v>-7.705385967909357e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>-6.170789986769e-06</v>
+        <v>3.271020270952118e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0006443765848958334</v>
+        <v>0.000570055246558388</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01268848953567252</v>
+        <v>-0.01203017657450566</v>
       </c>
       <c r="Q6" t="n">
-        <v>1155.54588856577</v>
+        <v>1121.954311499797</v>
       </c>
       <c r="R6" t="n">
-        <v>0.047456</v>
+        <v>0.037399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9958580861842105</v>
+        <v>0.9953465789473686</v>
       </c>
       <c r="B7" t="n">
-        <v>17.86443766447368</v>
+        <v>16.28943326023392</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.001314154870104167</v>
+        <v>-0.001499454810148026</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01716048995687865</v>
+        <v>0.01326224774913926</v>
       </c>
       <c r="E7" t="n">
-        <v>2.489104170306909e-06</v>
+        <v>2.379750653253288e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04608994032894737</v>
+        <v>0.05577141490131579</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.895505077667763e-05</v>
+        <v>-8.890072814638159e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002992250223791119</v>
+        <v>0.002668404349331323</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8602019773391815</v>
+        <v>0.9740626425438597</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0002803255966355995</v>
+        <v>-1.852302182017431e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0006610957767099963</v>
+        <v>-0.0005851467445599415</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0003789926804071637</v>
+        <v>-0.002716691307469116</v>
       </c>
       <c r="M7" t="n">
-        <v>-7.541191520603068e-05</v>
+        <v>-8.574030738998539e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>8.316054354166644e-07</v>
+        <v>-6.170789986769e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0009069839326732455</v>
+        <v>0.0006443765848958334</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.01187713215364401</v>
+        <v>-0.01268848953567252</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.736286086928</v>
+        <v>1155.54588856577</v>
       </c>
       <c r="R7" t="n">
-        <v>0.057512</v>
+        <v>0.047456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9962779450657895</v>
+        <v>0.9958580861842105</v>
       </c>
       <c r="B8" t="n">
-        <v>19.05203898026316</v>
+        <v>17.86443766447368</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.001048105523209064</v>
+        <v>-0.001314154870104167</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02126426366374268</v>
+        <v>0.01716048995687865</v>
       </c>
       <c r="E8" t="n">
-        <v>1.884077245819079e-06</v>
+        <v>2.489104170306909e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03770179657894737</v>
+        <v>0.04608994032894737</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.562345085921053e-05</v>
+        <v>-1.895505077667763e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003009644962690058</v>
+        <v>0.002992250223791119</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7328658187134502</v>
+        <v>0.8602019773391815</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0004952441566611842</v>
+        <v>-0.0002803255966355995</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.000760677691671418</v>
+        <v>-0.0006610957767099963</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000824900764087171</v>
+        <v>-0.0003789926804071637</v>
       </c>
       <c r="M8" t="n">
-        <v>-6.922091896308478e-05</v>
+        <v>-7.541191520603068e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.422588094523026e-05</v>
+        <v>8.316054354166644e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001163024029828399</v>
+        <v>0.0009069839326732455</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.01062466570876828</v>
+        <v>-0.01187713215364401</v>
       </c>
       <c r="Q8" t="n">
-        <v>1204.491369964539</v>
+        <v>1182.736286086928</v>
       </c>
       <c r="R8" t="n">
-        <v>0.067569</v>
+        <v>0.057512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.996623100493421</v>
+        <v>0.9962779450657895</v>
       </c>
       <c r="B9" t="n">
-        <v>19.97278061951754</v>
+        <v>19.05203898026316</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0008579043408859653</v>
+        <v>-0.001048105523209064</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02437099579721309</v>
+        <v>0.02126426366374268</v>
       </c>
       <c r="E9" t="n">
-        <v>1.843228630399671e-06</v>
+        <v>1.884077245819079e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03138822580592104</v>
+        <v>0.03770179657894737</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.671543920815789e-05</v>
+        <v>-2.562345085921053e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003022184365498931</v>
+        <v>0.003009644962690058</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6319457084247075</v>
+        <v>0.7328658187134502</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0005930162954660091</v>
+        <v>-0.0004952441566611842</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0007767808864251643</v>
+        <v>-0.000760677691671418</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003171766132317982</v>
+        <v>0.000824900764087171</v>
       </c>
       <c r="M9" t="n">
-        <v>-6.700707257243237e-05</v>
+        <v>-6.922091896308478e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.378035394091741e-05</v>
+        <v>1.422588094523026e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001364956066932292</v>
+        <v>0.001163024029828399</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.009103590926702211</v>
+        <v>-0.01062466570876828</v>
       </c>
       <c r="Q9" t="n">
-        <v>1222.077341082233</v>
+        <v>1204.491369964539</v>
       </c>
       <c r="R9" t="n">
-        <v>0.077625</v>
+        <v>0.067569</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9969304891447369</v>
+        <v>0.996623100493421</v>
       </c>
       <c r="B10" t="n">
-        <v>20.75251831140351</v>
+        <v>19.97278061951754</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.000514745677178363</v>
+        <v>-0.0008579043408859653</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02584415684163011</v>
+        <v>0.02437099579721309</v>
       </c>
       <c r="E10" t="n">
-        <v>1.889338849111843e-06</v>
+        <v>1.843228630399671e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02599704569078947</v>
+        <v>0.03138822580592104</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.342125973164474e-05</v>
+        <v>-2.671543920815789e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003013335085146748</v>
+        <v>0.003022184365498931</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5322532819809942</v>
+        <v>0.6319457084247075</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0006229612687244152</v>
+        <v>-0.0005930162954660091</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0007643439513587536</v>
+        <v>-0.0007767808864251643</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0015765073175937</v>
+        <v>0.003171766132317982</v>
       </c>
       <c r="M10" t="n">
-        <v>-4.252047140917396e-05</v>
+        <v>-6.700707257243237e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>2.386739390138889e-05</v>
+        <v>2.378035394091741e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001226364276224415</v>
+        <v>0.001364956066932292</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.007660009725566521</v>
+        <v>-0.009103590926702211</v>
       </c>
       <c r="Q10" t="n">
-        <v>1237.428481279941</v>
+        <v>1222.077341082233</v>
       </c>
       <c r="R10" t="n">
-        <v>0.088409</v>
+        <v>0.077625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9971889664473683</v>
+        <v>0.9969304891447369</v>
       </c>
       <c r="B11" t="n">
-        <v>21.37903059210526</v>
+        <v>20.75251831140351</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0002434384334247077</v>
+        <v>-0.000514745677178363</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02538503777485197</v>
+        <v>0.02584415684163011</v>
       </c>
       <c r="E11" t="n">
-        <v>2.23209515850329e-06</v>
+        <v>1.889338849111843e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>0.022141551875</v>
+        <v>0.02599704569078947</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.155317441447368e-05</v>
+        <v>-2.342125973164474e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003071946266534905</v>
+        <v>0.003013335085146748</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4626324159356724</v>
+        <v>0.5322532819809942</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0006529830287591378</v>
+        <v>-0.0006229612687244152</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0007133356628186951</v>
+        <v>-0.0007643439513587536</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00178746702919883</v>
+        <v>0.0015765073175937</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.136331020252233e-06</v>
+        <v>-4.252047140917396e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.663525908534357e-05</v>
+        <v>2.386739390138889e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0009010047106668493</v>
+        <v>0.001226364276224415</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.00623337529815031</v>
+        <v>-0.007660009725566521</v>
       </c>
       <c r="Q11" t="n">
-        <v>1250.101309279856</v>
+        <v>1237.428481279941</v>
       </c>
       <c r="R11" t="n">
-        <v>0.099192</v>
+        <v>0.088409</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9974116855263158</v>
+        <v>0.9971889664473683</v>
       </c>
       <c r="B12" t="n">
-        <v>21.89708033625731</v>
+        <v>21.37903059210526</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.55063128527046e-05</v>
+        <v>-0.0002434384334247077</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02332998662903874</v>
+        <v>0.02538503777485197</v>
       </c>
       <c r="E12" t="n">
-        <v>2.254026352386514e-06</v>
+        <v>2.23209515850329e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0192905490131579</v>
+        <v>0.022141551875</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.976763275230262e-05</v>
+        <v>-2.155317441447368e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002901788771796052</v>
+        <v>0.003071946266534905</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4096205489766082</v>
+        <v>0.4626324159356724</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0006492526739766083</v>
+        <v>-0.0006529830287591378</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0007422129013503291</v>
+        <v>-0.0007133356628186951</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001528684445179459</v>
+        <v>0.00178746702919883</v>
       </c>
       <c r="M12" t="n">
-        <v>4.002978144535819e-05</v>
+        <v>-2.136331020252233e-06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.241657207967836e-06</v>
+        <v>1.663525908534357e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0005188305415485746</v>
+        <v>0.0009010047106668493</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.005065736565991959</v>
+        <v>-0.00623337529815031</v>
       </c>
       <c r="Q12" t="n">
-        <v>1260.803937646457</v>
+        <v>1250.101309279856</v>
       </c>
       <c r="R12" t="n">
-        <v>0.10998</v>
+        <v>0.099192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9976067865131579</v>
+        <v>0.9974116855263158</v>
       </c>
       <c r="B13" t="n">
-        <v>22.33627793311403</v>
+        <v>21.89708033625731</v>
       </c>
       <c r="C13" t="n">
-        <v>2.264933394371334e-05</v>
+        <v>-5.55063128527046e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02038398858610197</v>
+        <v>0.02332998662903874</v>
       </c>
       <c r="E13" t="n">
-        <v>2.504328953623355e-06</v>
+        <v>2.254026352386514e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01705302137993421</v>
+        <v>0.0192905490131579</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.751367898680921e-05</v>
+        <v>-1.976763275230262e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002777074231361723</v>
+        <v>0.002901788771796052</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3695991848501461</v>
+        <v>0.4096205489766082</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0006092600702320906</v>
+        <v>-0.0006492526739766083</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0007689203925480903</v>
+        <v>-0.0007422129013503291</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002340165460729715</v>
+        <v>0.001528684445179459</v>
       </c>
       <c r="M13" t="n">
-        <v>8.529022016255483e-05</v>
+        <v>4.002978144535819e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.141157752298063e-05</v>
+        <v>4.241657207967836e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0002399478441135782</v>
+        <v>0.0005188305415485746</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.004019866132536732</v>
+        <v>-0.005065736565991959</v>
       </c>
       <c r="Q13" t="n">
-        <v>1270.040376576131</v>
+        <v>1260.803937646457</v>
       </c>
       <c r="R13" t="n">
-        <v>0.12076</v>
+        <v>0.10998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9977929697368422</v>
+        <v>0.9976067865131579</v>
       </c>
       <c r="B14" t="n">
-        <v>22.73990550073099</v>
+        <v>22.33627793311403</v>
       </c>
       <c r="C14" t="n">
-        <v>2.204193921418167e-05</v>
+        <v>2.264933394371334e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01741658068477705</v>
+        <v>0.02038398858610197</v>
       </c>
       <c r="E14" t="n">
-        <v>3.194213265131579e-06</v>
+        <v>2.504328953623355e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01525582762171052</v>
+        <v>0.01705302137993421</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.19884263023684e-05</v>
+        <v>-1.751367898680921e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002611680828170504</v>
+        <v>0.002777074231361723</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3340485032894737</v>
+        <v>0.3695991848501461</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0004730214592032163</v>
+        <v>-0.0006092600702320906</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0008248685189316156</v>
+        <v>-0.0007689203925480903</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001011924086001522</v>
+        <v>0.002340165460729715</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0001088786766463816</v>
+        <v>8.529022016255483e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.253105365972222e-05</v>
+        <v>-1.141157752298063e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>6.428730590538559e-05</v>
+        <v>0.0002399478441135782</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.003167870234330044</v>
+        <v>-0.004019866132536732</v>
       </c>
       <c r="Q14" t="n">
-        <v>1278.660304706055</v>
+        <v>1270.040376576131</v>
       </c>
       <c r="R14" t="n">
-        <v>0.13229</v>
+        <v>0.12076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9979604947368422</v>
+        <v>0.9977929697368422</v>
       </c>
       <c r="B15" t="n">
-        <v>23.09169791666667</v>
+        <v>22.73990550073099</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.93672460343564e-05</v>
+        <v>2.204193921418167e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01546724371538742</v>
+        <v>0.01741658068477705</v>
       </c>
       <c r="E15" t="n">
-        <v>3.745255253330921e-06</v>
+        <v>3.194213265131579e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01386555624342105</v>
+        <v>0.01525582762171052</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.15829018980261e-06</v>
+        <v>-1.19884263023684e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002522408709633406</v>
+        <v>0.002611680828170504</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3084733658625731</v>
+        <v>0.3340485032894737</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0002697087387993425</v>
+        <v>-0.0004730214592032163</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0008897055920158992</v>
+        <v>-0.0008248685189316156</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009799054637543859</v>
+        <v>0.001011924086001522</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0001222848163190424</v>
+        <v>0.0001088786766463816</v>
       </c>
       <c r="N15" t="n">
-        <v>3.970392998812131e-06</v>
+        <v>-1.253105365972222e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>3.288693061823832e-05</v>
+        <v>6.428730590538559e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.002399022149770102</v>
+        <v>-0.003167870234330044</v>
       </c>
       <c r="Q15" t="n">
-        <v>1286.295464852276</v>
+        <v>1278.660304706055</v>
       </c>
       <c r="R15" t="n">
-        <v>0.14381</v>
+        <v>0.13229</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9981137250000001</v>
+        <v>0.9979604947368422</v>
       </c>
       <c r="B16" t="n">
-        <v>23.4047745248538</v>
+        <v>23.09169791666667</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.010567801535111e-05</v>
+        <v>-2.93672460343564e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01461904677841739</v>
+        <v>0.01546724371538742</v>
       </c>
       <c r="E16" t="n">
-        <v>4.150500286499999e-06</v>
+        <v>3.745255253330921e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01276643264473684</v>
+        <v>0.01386555624342105</v>
       </c>
       <c r="G16" t="n">
-        <v>4.36491351677633e-06</v>
+        <v>-4.15829018980261e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002319337820311403</v>
+        <v>0.002522408709633406</v>
       </c>
       <c r="I16" t="n">
-        <v>0.287991444627193</v>
+        <v>0.3084733658625731</v>
       </c>
       <c r="J16" t="n">
-        <v>-3.901039622130818e-05</v>
+        <v>-0.0002697087387993425</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.001016093505313999</v>
+        <v>-0.0008897055920158992</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007783644597951388</v>
+        <v>0.0009799054637543859</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0001241351211048976</v>
+        <v>0.0001222848163190424</v>
       </c>
       <c r="N16" t="n">
-        <v>3.385026616209796e-05</v>
+        <v>3.970392998812131e-06</v>
       </c>
       <c r="O16" t="n">
-        <v>1.43045551917946e-05</v>
+        <v>3.288693061823832e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.00183208192914735</v>
+        <v>-0.002399022149770102</v>
       </c>
       <c r="Q16" t="n">
-        <v>1293.191480648082</v>
+        <v>1286.295464852276</v>
       </c>
       <c r="R16" t="n">
-        <v>0.15534</v>
+        <v>0.14381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9982549524671054</v>
+        <v>0.9981137250000001</v>
       </c>
       <c r="B17" t="n">
-        <v>23.68820103252924</v>
+        <v>23.4047745248538</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.494283507858269e-05</v>
+        <v>-7.010567801535111e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01467981238213633</v>
+        <v>0.01461904677841739</v>
       </c>
       <c r="E17" t="n">
-        <v>4.708343717804277e-06</v>
+        <v>4.150500286499999e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0118314278125</v>
+        <v>0.01276643264473684</v>
       </c>
       <c r="G17" t="n">
-        <v>7.865138722401301e-06</v>
+        <v>4.36491351677633e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002187686398060015</v>
+        <v>0.002319337820311403</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2714686163194444</v>
+        <v>0.287991444627193</v>
       </c>
       <c r="J17" t="n">
-        <v>8.553632805921073e-05</v>
+        <v>-3.901039622130818e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001129356143045303</v>
+        <v>-0.001016093505313999</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001344243705458726</v>
+        <v>0.0007783644597951388</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0001247329707837957</v>
+        <v>0.0001241351211048976</v>
       </c>
       <c r="N17" t="n">
-        <v>7.30171427988761e-05</v>
+        <v>3.385026616209796e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>-8.960485841557007e-06</v>
+        <v>1.43045551917946e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.001325302194129715</v>
+        <v>-0.00183208192914735</v>
       </c>
       <c r="Q17" t="n">
-        <v>1299.517953095848</v>
+        <v>1293.191480648082</v>
       </c>
       <c r="R17" t="n">
-        <v>0.16686</v>
+        <v>0.15534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9983956036184211</v>
+        <v>0.9982549524671054</v>
       </c>
       <c r="B18" t="n">
-        <v>23.96385780336257</v>
+        <v>23.68820103252924</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.935642704678124e-05</v>
+        <v>-6.494283507858269e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0154872260807584</v>
+        <v>0.01467981238213633</v>
       </c>
       <c r="E18" t="n">
-        <v>5.515143816194079e-06</v>
+        <v>4.708343717804277e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01105124593421053</v>
+        <v>0.0118314278125</v>
       </c>
       <c r="G18" t="n">
-        <v>5.168898833717091e-06</v>
+        <v>7.865138722401301e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00203494903823008</v>
+        <v>0.002187686398060015</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2561572986111111</v>
+        <v>0.2714686163194444</v>
       </c>
       <c r="J18" t="n">
-        <v>7.2827654002193e-05</v>
+        <v>8.553632805921073e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.001257713499725073</v>
+        <v>-0.001129356143045303</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004693177225459795</v>
+        <v>0.001344243705458726</v>
       </c>
       <c r="M18" t="n">
-        <v>0.000132684178662299</v>
+        <v>0.0001247329707837957</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0001224293982648392</v>
+        <v>7.30171427988761e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0001002496451348684</v>
+        <v>-8.960485841557007e-06</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.000907835790449196</v>
+        <v>-0.001325302194129715</v>
       </c>
       <c r="Q18" t="n">
-        <v>1305.747550287288</v>
+        <v>1299.517953095848</v>
       </c>
       <c r="R18" t="n">
-        <v>0.17914</v>
+        <v>0.16686</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9985274361842106</v>
+        <v>0.9983956036184211</v>
       </c>
       <c r="B19" t="n">
-        <v>24.21838262061403</v>
+        <v>23.96385780336257</v>
       </c>
       <c r="C19" t="n">
-        <v>1.089034614400551e-05</v>
+        <v>-1.935642704678124e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0168306458548739</v>
+        <v>0.0154872260807584</v>
       </c>
       <c r="E19" t="n">
-        <v>5.933564887536183e-06</v>
+        <v>5.515143816194079e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01045536299342105</v>
+        <v>0.01105124593421053</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.119073430230254e-06</v>
+        <v>5.168898833717091e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001944102306250672</v>
+        <v>0.00203494903823008</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2457818384502924</v>
+        <v>0.2561572986111111</v>
       </c>
       <c r="J19" t="n">
-        <v>-6.68659115497078e-05</v>
+        <v>7.2827654002193e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.001371687810210892</v>
+        <v>-0.001257713499725073</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005003947207686037</v>
+        <v>0.0004693177225459795</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0001356102744174159</v>
+        <v>0.000132684178662299</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0001762420077176718</v>
+        <v>0.0001224293982648392</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0001714865554691155</v>
+        <v>-0.0001002496451348684</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0005258551998802997</v>
+        <v>-0.000907835790449196</v>
       </c>
       <c r="Q19" t="n">
-        <v>1311.572887683388</v>
+        <v>1305.747550287288</v>
       </c>
       <c r="R19" t="n">
-        <v>0.19141</v>
+        <v>0.17914</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9986527460526314</v>
+        <v>0.9985274361842106</v>
       </c>
       <c r="B20" t="n">
-        <v>24.45658932748538</v>
+        <v>24.21838262061403</v>
       </c>
       <c r="C20" t="n">
-        <v>1.355162134502859e-05</v>
+        <v>1.089034614400551e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01822624292432018</v>
+        <v>0.0168306458548739</v>
       </c>
       <c r="E20" t="n">
-        <v>6.188883358289473e-06</v>
+        <v>5.933564887536183e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>0.009967815542763157</v>
+        <v>0.01045536299342105</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.243338027171051e-05</v>
+        <v>-2.119073430230254e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001784303162456506</v>
+        <v>0.001944102306250672</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2373590741959065</v>
+        <v>0.2457818384502924</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0002951333549571454</v>
+        <v>-6.68659115497078e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.001504611863147295</v>
+        <v>-0.001371687810210892</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004094838689945175</v>
+        <v>0.0005003947207686037</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001283386422110746</v>
+        <v>0.0001356102744174159</v>
       </c>
       <c r="N20" t="n">
-        <v>0.000218539323901864</v>
+        <v>0.0001762420077176718</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.000172067638971875</v>
+        <v>-0.0001714865554691155</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.000274193665129386</v>
+        <v>-0.0005258551998802997</v>
       </c>
       <c r="Q20" t="n">
-        <v>1317.087477229527</v>
+        <v>1311.572887683388</v>
       </c>
       <c r="R20" t="n">
-        <v>0.20369</v>
+        <v>0.19141</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9987718796052631</v>
+        <v>0.9986527460526314</v>
       </c>
       <c r="B21" t="n">
-        <v>24.68155829678363</v>
+        <v>24.45658932748538</v>
       </c>
       <c r="C21" t="n">
-        <v>1.972219024122283e-06</v>
+        <v>1.355162134502859e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0192256770201663</v>
+        <v>0.01822624292432018</v>
       </c>
       <c r="E21" t="n">
-        <v>6.419119339407894e-06</v>
+        <v>6.188883358289473e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>0.009502255572368421</v>
+        <v>0.009967815542763157</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.061623458850328e-05</v>
+        <v>-1.243338027171051e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001676777352082968</v>
+        <v>0.001784303162456506</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2295069953399123</v>
+        <v>0.2373590741959065</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0004837899563586442</v>
+        <v>-0.0002951333549571454</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.001621103431500767</v>
+        <v>-0.001504611863147295</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000907367480917617</v>
+        <v>0.0004094838689945175</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0001149708158243786</v>
+        <v>0.0001283386422110746</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0002397871903838267</v>
+        <v>0.000218539323901864</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.0001204206482317498</v>
+        <v>-0.000172067638971875</v>
       </c>
       <c r="P21" t="n">
-        <v>-5.892652416639255e-05</v>
+        <v>-0.000274193665129386</v>
       </c>
       <c r="Q21" t="n">
-        <v>1322.3479232769</v>
+        <v>1317.087477229527</v>
       </c>
       <c r="R21" t="n">
-        <v>0.21597</v>
+        <v>0.20369</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9988931019736843</v>
+        <v>0.9987718796052631</v>
       </c>
       <c r="B22" t="n">
-        <v>24.90778645833333</v>
+        <v>24.68155829678363</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.295487061402011e-06</v>
+        <v>1.972219024122283e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01985014650053911</v>
+        <v>0.0192256770201663</v>
       </c>
       <c r="E22" t="n">
-        <v>6.648055846259869e-06</v>
+        <v>6.419119339407894e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00906319564473684</v>
+        <v>0.009502255572368421</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.148675222598684e-05</v>
+        <v>-2.061623458850328e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001556221615226297</v>
+        <v>0.001676777352082968</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2210503841374269</v>
+        <v>0.2295069953399123</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0005186796067251462</v>
+        <v>-0.0004837899563586442</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.001742762036544225</v>
+        <v>-0.001621103431500767</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003238038079597953</v>
+        <v>0.000907367480917617</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001049107072988121</v>
+        <v>0.0001149708158243786</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0002354973692278874</v>
+        <v>0.0002397871903838267</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.737656291039839e-05</v>
+        <v>-0.0001204206482317498</v>
       </c>
       <c r="P22" t="n">
-        <v>7.919008310946636e-05</v>
+        <v>-5.892652416639255e-05</v>
       </c>
       <c r="Q22" t="n">
-        <v>1327.68341680954</v>
+        <v>1322.3479232769</v>
       </c>
       <c r="R22" t="n">
-        <v>0.22899</v>
+        <v>0.21597</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9990087700657894</v>
+        <v>0.9988931019736843</v>
       </c>
       <c r="B23" t="n">
-        <v>25.12310738304094</v>
+        <v>24.90778645833333</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.1011332602349e-06</v>
+        <v>-7.295487061402011e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02020917785147478</v>
+        <v>0.01985014650053911</v>
       </c>
       <c r="E23" t="n">
-        <v>6.538690272662829e-06</v>
+        <v>6.648055846259869e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>0.008705659088815789</v>
+        <v>0.00906319564473684</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.765087997105264e-05</v>
+        <v>-2.148675222598684e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001483191985108004</v>
+        <v>0.001556221615226297</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2147850089546784</v>
+        <v>0.2210503841374269</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0004318584950255847</v>
+        <v>-0.0005186796067251462</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.001849673299389985</v>
+        <v>-0.001742762036544225</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004311143229046053</v>
+        <v>0.0003238038079597953</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0001023400635751096</v>
+        <v>0.0001049107072988121</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0002186604485511695</v>
+        <v>0.0002354973692278874</v>
       </c>
       <c r="O23" t="n">
-        <v>4.403211227375733e-05</v>
+        <v>-1.737656291039839e-05</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0002247439251661184</v>
+        <v>7.919008310946636e-05</v>
       </c>
       <c r="Q23" t="n">
-        <v>1332.808397259021</v>
+        <v>1327.68341680954</v>
       </c>
       <c r="R23" t="n">
-        <v>0.24202</v>
+        <v>0.22899</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9991201388157895</v>
+        <v>0.9990087700657894</v>
       </c>
       <c r="B24" t="n">
-        <v>25.32934312865497</v>
+        <v>25.12310738304094</v>
       </c>
       <c r="C24" t="n">
-        <v>1.053239334795499e-05</v>
+        <v>-4.1011332602349e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02070755485568348</v>
+        <v>0.02020917785147478</v>
       </c>
       <c r="E24" t="n">
-        <v>6.412011396866118e-06</v>
+        <v>6.538690272662829e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>0.008395725891447369</v>
+        <v>0.008705659088815789</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.595947636421052e-05</v>
+        <v>-1.765087997105264e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00137016469938633</v>
+        <v>0.001483191985108004</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2092715091374269</v>
+        <v>0.2147850089546784</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0003760735994462717</v>
+        <v>-0.0004318584950255847</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.001956626910497076</v>
+        <v>-0.001849673299389985</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004489611002242324</v>
+        <v>0.0004311143229046053</v>
       </c>
       <c r="M24" t="n">
-        <v>9.323963389607092e-05</v>
+        <v>0.0001023400635751096</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0002051617736304514</v>
+        <v>0.0002186604485511695</v>
       </c>
       <c r="O24" t="n">
-        <v>7.98462975880848e-05</v>
+        <v>4.403211227375733e-05</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0002980017513395467</v>
+        <v>0.0002247439251661184</v>
       </c>
       <c r="Q24" t="n">
-        <v>1337.761522847141</v>
+        <v>1332.808397259021</v>
       </c>
       <c r="R24" t="n">
-        <v>0.25504</v>
+        <v>0.24202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9992271621710527</v>
+        <v>0.9991201388157895</v>
       </c>
       <c r="B25" t="n">
-        <v>25.52764081688596</v>
+        <v>25.32934312865497</v>
       </c>
       <c r="C25" t="n">
-        <v>9.016207876460614e-06</v>
+        <v>1.053239334795499e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0215700043142617</v>
+        <v>0.02070755485568348</v>
       </c>
       <c r="E25" t="n">
-        <v>6.383062318496381e-06</v>
+        <v>6.412011396866118e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>0.008084961174342105</v>
+        <v>0.008395725891447369</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.726910116491778e-05</v>
+        <v>-1.595947636421052e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001296088973278974</v>
+        <v>0.00137016469938633</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2037637785087719</v>
+        <v>0.2092715091374269</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.000387830346747076</v>
+        <v>-0.0003760735994462717</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.002027224744642361</v>
+        <v>-0.001956626910497076</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008548980223012152</v>
+        <v>0.0004489611002242324</v>
       </c>
       <c r="M25" t="n">
-        <v>7.029793500349964e-05</v>
+        <v>9.323963389607092e-05</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0001974129545117781</v>
+        <v>0.0002051617736304514</v>
       </c>
       <c r="O25" t="n">
-        <v>8.144851333206321e-05</v>
+        <v>7.98462975880848e-05</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0003729168538556286</v>
+        <v>0.0002980017513395467</v>
       </c>
       <c r="Q25" t="n">
-        <v>1342.56493663657</v>
+        <v>1337.761522847141</v>
       </c>
       <c r="R25" t="n">
-        <v>0.26807</v>
+        <v>0.25504</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9993365072368421</v>
+        <v>0.9992271621710527</v>
       </c>
       <c r="B26" t="n">
-        <v>25.72886825657895</v>
+        <v>25.52764081688596</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.924125922879976e-05</v>
+        <v>9.016207876460614e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02276031349264693</v>
+        <v>0.0215700043142617</v>
       </c>
       <c r="E26" t="n">
-        <v>6.514554080585525e-06</v>
+        <v>6.383062318496381e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007758491019736842</v>
+        <v>0.008084961174342105</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.967782702986841e-05</v>
+        <v>-1.726910116491778e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001210957065276243</v>
+        <v>0.001296088973278974</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1972408079312865</v>
+        <v>0.2037637785087719</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0004423165081725146</v>
+        <v>-0.000387830346747076</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.002077401152860197</v>
+        <v>-0.002027224744642361</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004664289418022332</v>
+        <v>0.0008548980223012152</v>
       </c>
       <c r="M26" t="n">
-        <v>3.481019217356725e-05</v>
+        <v>7.029793500349964e-05</v>
       </c>
       <c r="N26" t="n">
-        <v>0.000186114348906981</v>
+        <v>0.0001974129545117781</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0001427514435060307</v>
+        <v>8.144851333206321e-05</v>
       </c>
       <c r="P26" t="n">
-        <v>0.000416817551748611</v>
+        <v>0.0003729168538556286</v>
       </c>
       <c r="Q26" t="n">
-        <v>1347.478057832649</v>
+        <v>1342.56493663657</v>
       </c>
       <c r="R26" t="n">
-        <v>0.28184</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9994411013157894</v>
+        <v>0.9993365072368421</v>
       </c>
       <c r="B27" t="n">
-        <v>25.92175025584796</v>
+        <v>25.72886825657895</v>
       </c>
       <c r="C27" t="n">
-        <v>-8.270345778508706e-05</v>
+        <v>-2.924125922879976e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02398360210263158</v>
+        <v>0.02276031349264693</v>
       </c>
       <c r="E27" t="n">
-        <v>6.458239423009869e-06</v>
+        <v>6.514554080585525e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>0.007469135513157895</v>
+        <v>0.007758491019736842</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.24204101057237e-05</v>
+        <v>-1.967782702986841e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001156615283287829</v>
+        <v>0.001210957065276243</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1917622633406433</v>
+        <v>0.1972408079312865</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0005164821511586253</v>
+        <v>-0.0004423165081725146</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.002102317878623903</v>
+        <v>-0.002077401152860197</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0005577287346295687</v>
+        <v>0.0004664289418022332</v>
       </c>
       <c r="M27" t="n">
-        <v>-1.390252990862573e-06</v>
+        <v>3.481019217356725e-05</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0001690339446354167</v>
+        <v>0.000186114348906981</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0001739788410727339</v>
+        <v>0.0001427514435060307</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0004718099202133151</v>
+        <v>0.000416817551748611</v>
       </c>
       <c r="Q27" t="n">
-        <v>1352.225405706408</v>
+        <v>1347.478057832649</v>
       </c>
       <c r="R27" t="n">
-        <v>0.29561</v>
+        <v>0.28184</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9995421384868421</v>
+        <v>0.9994411013157894</v>
       </c>
       <c r="B28" t="n">
-        <v>26.10705085891813</v>
+        <v>25.92175025584796</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0001224061950109637</v>
+        <v>-8.270345778508706e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02491136808589181</v>
+        <v>0.02398360210263158</v>
       </c>
       <c r="E28" t="n">
-        <v>6.355495449838814e-06</v>
+        <v>6.458239423009869e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>0.007193000240131579</v>
+        <v>0.007469135513157895</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.324736548697369e-05</v>
+        <v>-2.24204101057237e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001072371599116045</v>
+        <v>0.001156615283287829</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1863405398391813</v>
+        <v>0.1917622633406433</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0005477025882492689</v>
+        <v>-0.0005164821511586253</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.002116983761993786</v>
+        <v>-0.002102317878623903</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0005825449530262244</v>
+        <v>0.0005577287346295687</v>
       </c>
       <c r="M28" t="n">
-        <v>-2.794889059236111e-05</v>
+        <v>-1.390252990862573e-06</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0001447855460966192</v>
+        <v>0.0001690339446354167</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0001781564553682383</v>
+        <v>0.0001739788410727339</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0004741560582441246</v>
+        <v>0.0004718099202133151</v>
       </c>
       <c r="Q28" t="n">
-        <v>1356.819358904211</v>
+        <v>1352.225405706408</v>
       </c>
       <c r="R28" t="n">
-        <v>0.30938</v>
+        <v>0.29561</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9996389888157895</v>
+        <v>0.9995421384868421</v>
       </c>
       <c r="B29" t="n">
-        <v>26.28529366776315</v>
+        <v>26.10705085891813</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0001308283977384893</v>
+        <v>-0.0001224061950109637</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02534446414392388</v>
+        <v>0.02491136808589181</v>
       </c>
       <c r="E29" t="n">
-        <v>6.191640785776413e-06</v>
+        <v>6.355495449838814e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>0.006906024225328947</v>
+        <v>0.007193000240131579</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.971254843717106e-05</v>
+        <v>-2.324736548697369e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001018378920445954</v>
+        <v>0.001072371599116045</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1805963509685673</v>
+        <v>0.1863405398391813</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0004651134827083335</v>
+        <v>-0.0005477025882492689</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.002111346290773026</v>
+        <v>-0.002116983761993786</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0009329548470854075</v>
+        <v>0.0005825449530262244</v>
       </c>
       <c r="M29" t="n">
-        <v>-4.245857019724781e-05</v>
+        <v>-2.794889059236111e-05</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0001158122974014986</v>
+        <v>0.0001447855460966192</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0001342618885914601</v>
+        <v>0.0001781564553682383</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0004842505959173977</v>
+        <v>0.0004741560582441246</v>
       </c>
       <c r="Q29" t="n">
-        <v>1361.26872808521</v>
+        <v>1356.819358904211</v>
       </c>
       <c r="R29" t="n">
-        <v>0.32314</v>
+        <v>0.30938</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9997367197368421</v>
+        <v>0.9996389888157895</v>
       </c>
       <c r="B30" t="n">
-        <v>26.46509234283626</v>
+        <v>26.28529366776315</v>
       </c>
       <c r="C30" t="n">
-        <v>-9.651711074561279e-05</v>
+        <v>-0.0001308283977384893</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02525723182902595</v>
+        <v>0.02534446414392388</v>
       </c>
       <c r="E30" t="n">
-        <v>6.022341842368421e-06</v>
+        <v>6.191640785776413e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>0.006594825657894736</v>
+        <v>0.006906024225328947</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.254416380621711e-05</v>
+        <v>-1.971254843717106e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0009572387401145832</v>
+        <v>0.001018378920445954</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1738450610380117</v>
+        <v>0.1805963509685673</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0002915563456524121</v>
+        <v>-0.0004651134827083335</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.002096692101717836</v>
+        <v>-0.002111346290773026</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0006309435422095212</v>
+        <v>0.0009329548470854075</v>
       </c>
       <c r="M30" t="n">
-        <v>-4.061891304764254e-05</v>
+        <v>-4.245857019724781e-05</v>
       </c>
       <c r="N30" t="n">
-        <v>8.33332662705592e-05</v>
+        <v>0.0001158122974014986</v>
       </c>
       <c r="O30" t="n">
-        <v>5.031898456186038e-05</v>
+        <v>0.0001342618885914601</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0004683786249310855</v>
+        <v>0.0004842505959173977</v>
       </c>
       <c r="Q30" t="n">
-        <v>1365.78661840542</v>
+        <v>1361.26872808521</v>
       </c>
       <c r="R30" t="n">
-        <v>0.33764</v>
+        <v>0.32314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9998291503289474</v>
+        <v>0.9997367197368421</v>
       </c>
       <c r="B31" t="n">
-        <v>26.63702964181287</v>
+        <v>26.46509234283626</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.82038009502957e-05</v>
+        <v>-9.651711074561279e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02479727453456323</v>
+        <v>0.02525723182902595</v>
       </c>
       <c r="E31" t="n">
-        <v>5.84927448557171e-06</v>
+        <v>6.022341842368421e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>0.006319588111842105</v>
+        <v>0.006594825657894736</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.059472841776317e-06</v>
+        <v>-1.254416380621711e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0009257542477861842</v>
+        <v>0.0009572387401145832</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1680591659356725</v>
+        <v>0.1738450610380117</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0001383114170211991</v>
+        <v>-0.0002915563456524121</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.002076528588760965</v>
+        <v>-0.002096692101717836</v>
       </c>
       <c r="L31" t="n">
-        <v>0.000706108459959629</v>
+        <v>0.0006309435422095212</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.69726448353253e-05</v>
+        <v>-4.061891304764254e-05</v>
       </c>
       <c r="N31" t="n">
-        <v>5.540508755244883e-05</v>
+        <v>8.33332662705592e-05</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.273364411732442e-06</v>
+        <v>5.031898456186038e-05</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0004918218829155702</v>
+        <v>0.0004683786249310855</v>
       </c>
       <c r="Q31" t="n">
-        <v>1370.13701767706</v>
+        <v>1365.78661840542</v>
       </c>
       <c r="R31" t="n">
-        <v>0.35213</v>
+        <v>0.33764</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9999203546052631</v>
+        <v>0.9998291503289474</v>
       </c>
       <c r="B32" t="n">
-        <v>26.80191176900585</v>
+        <v>26.63702964181287</v>
       </c>
       <c r="C32" t="n">
-        <v>-4.480233790204753e-05</v>
+        <v>-5.82038009502957e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0241074513750731</v>
+        <v>0.02479727453456323</v>
       </c>
       <c r="E32" t="n">
-        <v>5.641062222973684e-06</v>
+        <v>5.84927448557171e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>0.006070793664473685</v>
+        <v>0.006319588111842105</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.742984321052635e-06</v>
+        <v>-6.059472841776317e-06</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0008694993648655153</v>
+        <v>0.0009257542477861842</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1627101672149123</v>
+        <v>0.1680591659356725</v>
       </c>
       <c r="J32" t="n">
-        <v>-4.335564306103794e-05</v>
+        <v>-0.0001383114170211991</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.00205697712116228</v>
+        <v>-0.002076528588760965</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0007287984126980994</v>
+        <v>0.000706108459959629</v>
       </c>
       <c r="M32" t="n">
-        <v>2.200583392419591e-05</v>
+        <v>-1.69726448353253e-05</v>
       </c>
       <c r="N32" t="n">
-        <v>3.470924144552266e-05</v>
+        <v>5.540508755244883e-05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.612533485707238e-05</v>
+        <v>-1.273364411732442e-06</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0004969681036354166</v>
+        <v>0.0004918218829155702</v>
       </c>
       <c r="Q32" t="n">
-        <v>1374.334581942464</v>
+        <v>1370.13701767706</v>
       </c>
       <c r="R32" t="n">
-        <v>0.36662</v>
+        <v>0.35213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.000006147368421</v>
+        <v>0.9999203546052631</v>
       </c>
       <c r="B33" t="n">
-        <v>26.96089432565789</v>
+        <v>26.80191176900585</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.639227174707576e-05</v>
+        <v>-4.480233790204753e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02323451030486293</v>
+        <v>0.0241074513750731</v>
       </c>
       <c r="E33" t="n">
-        <v>5.288700445811019e-06</v>
+        <v>5.641062222973684e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>0.005830454827302631</v>
+        <v>0.006070793664473685</v>
       </c>
       <c r="G33" t="n">
-        <v>1.38896193486842e-07</v>
+        <v>-1.742984321052635e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0008251556075114775</v>
+        <v>0.0008694993648655153</v>
       </c>
       <c r="I33" t="n">
-        <v>0.157397716374269</v>
+        <v>0.1627101672149123</v>
       </c>
       <c r="J33" t="n">
-        <v>-9.15813835517155e-06</v>
+        <v>-4.335564306103794e-05</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.002029242482957693</v>
+        <v>-0.00205697712116228</v>
       </c>
       <c r="L33" t="n">
-        <v>0.00100403327240222</v>
+        <v>0.0007287984126980994</v>
       </c>
       <c r="M33" t="n">
-        <v>7.021583701335891e-05</v>
+        <v>2.200583392419591e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>1.852286401252741e-05</v>
+        <v>3.470924144552266e-05</v>
       </c>
       <c r="O33" t="n">
-        <v>7.127242440498905e-05</v>
+        <v>1.612533485707238e-05</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0005189099359913926</v>
+        <v>0.0004969681036354166</v>
       </c>
       <c r="Q33" t="n">
-        <v>1378.40573753343</v>
+        <v>1374.334581942464</v>
       </c>
       <c r="R33" t="n">
-        <v>0.38111</v>
+        <v>0.36662</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.000091751315789</v>
+        <v>1.000006147368421</v>
       </c>
       <c r="B34" t="n">
-        <v>27.12199448099415</v>
+        <v>26.96089432565789</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.795993322368405e-05</v>
+        <v>-5.639227174707576e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02214377756107456</v>
+        <v>0.02323451030486293</v>
       </c>
       <c r="E34" t="n">
-        <v>5.154946845032895e-06</v>
+        <v>5.288700445811019e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005577624203947369</v>
+        <v>0.005830454827302631</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.556177715493574e-07</v>
+        <v>1.38896193486842e-07</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0007749684326888705</v>
+        <v>0.0008251556075114775</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1514045127923977</v>
+        <v>0.157397716374269</v>
       </c>
       <c r="J34" t="n">
-        <v>-4.206376368238317e-05</v>
+        <v>-9.15813835517155e-06</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.002002531484082602</v>
+        <v>-0.002029242482957693</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0007459060321313961</v>
+        <v>0.00100403327240222</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0001180107450372807</v>
+        <v>7.021583701335891e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>9.72805659539474e-06</v>
+        <v>1.852286401252741e-05</v>
       </c>
       <c r="O34" t="n">
-        <v>6.848487448944081e-05</v>
+        <v>7.127242440498905e-05</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0005270574973406433</v>
+        <v>0.0005189099359913926</v>
       </c>
       <c r="Q34" t="n">
-        <v>1382.552872110155</v>
+        <v>1378.40573753343</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3963</v>
+        <v>0.38111</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.000175950986842</v>
+        <v>1.000091751315789</v>
       </c>
       <c r="B35" t="n">
-        <v>27.2782502375731</v>
+        <v>27.12199448099415</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.773030696271933e-05</v>
+        <v>-5.795993322368405e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02125365832006761</v>
+        <v>0.02214377756107456</v>
       </c>
       <c r="E35" t="n">
-        <v>5.051261878478289e-06</v>
+        <v>5.154946845032895e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005385409930921053</v>
+        <v>0.005577624203947369</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.559924668552629e-06</v>
+        <v>-7.556177715493574e-07</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0007473772180234284</v>
+        <v>0.0007749684326888705</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1470328470394737</v>
+        <v>0.1514045127923977</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0001500621791529607</v>
+        <v>-4.206376368238317e-05</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.001979886701864035</v>
+        <v>-0.002002531484082602</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0008020816676996892</v>
+        <v>0.0007459060321313961</v>
       </c>
       <c r="M35" t="n">
-        <v>0.000152680222886239</v>
+        <v>0.0001180107450372807</v>
       </c>
       <c r="N35" t="n">
-        <v>5.348436299641815e-06</v>
+        <v>9.72805659539474e-06</v>
       </c>
       <c r="O35" t="n">
-        <v>7.512332096331322e-05</v>
+        <v>6.848487448944081e-05</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0005633882662002923</v>
+        <v>0.0005270574973406433</v>
       </c>
       <c r="Q35" t="n">
-        <v>1386.594796381924</v>
+        <v>1382.552872110155</v>
       </c>
       <c r="R35" t="n">
-        <v>0.41148</v>
+        <v>0.3963</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.000257075986842</v>
+        <v>1.000175950986842</v>
       </c>
       <c r="B36" t="n">
-        <v>27.43026421783626</v>
+        <v>27.2782502375731</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.597934581508348e-06</v>
+        <v>-3.773030696271933e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02064476320047569</v>
+        <v>0.02125365832006761</v>
       </c>
       <c r="E36" t="n">
-        <v>4.913294964423552e-06</v>
+        <v>5.051261878478289e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00523309147368421</v>
+        <v>0.005385409930921053</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.18166480720395e-06</v>
+        <v>-4.559924668552629e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>0.000701758357383315</v>
+        <v>0.0007473772180234284</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1437062775950292</v>
+        <v>0.1470328470394737</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.0002519332234831873</v>
+        <v>-0.0001500621791529607</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.001962146795851608</v>
+        <v>-0.001979886701864035</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0008103247214904972</v>
+        <v>0.0008020816676996892</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001671087464811952</v>
+        <v>0.000152680222886239</v>
       </c>
       <c r="N36" t="n">
-        <v>3.042573060855262e-06</v>
+        <v>5.348436299641815e-06</v>
       </c>
       <c r="O36" t="n">
-        <v>9.137898252249635e-05</v>
+        <v>7.512332096331322e-05</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0005815068762062683</v>
+        <v>0.0005633882662002923</v>
       </c>
       <c r="Q36" t="n">
-        <v>1390.550400351161</v>
+        <v>1386.594796381924</v>
       </c>
       <c r="R36" t="n">
-        <v>0.42667</v>
+        <v>0.41148</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.000333348355263</v>
+        <v>1.000257075986842</v>
       </c>
       <c r="B37" t="n">
-        <v>27.5784305372807</v>
+        <v>27.43026421783626</v>
       </c>
       <c r="C37" t="n">
-        <v>1.659936144919678e-05</v>
+        <v>-6.597934581508348e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02011403124665296</v>
+        <v>0.02064476320047569</v>
       </c>
       <c r="E37" t="n">
-        <v>4.687724903720444e-06</v>
+        <v>4.913294964423552e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005094617120065789</v>
+        <v>0.00523309147368421</v>
       </c>
       <c r="G37" t="n">
-        <v>-9.277137396710535e-06</v>
+        <v>-8.18166480720395e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>0.000666681843286705</v>
+        <v>0.000701758357383315</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1407702034904971</v>
+        <v>0.1437062775950292</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.0002837198969736846</v>
+        <v>-0.0002519332234831873</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.001940509604623538</v>
+        <v>-0.001962146795851608</v>
       </c>
       <c r="L37" t="n">
-        <v>0.001012206475748768</v>
+        <v>0.0008103247214904972</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0001629781407771381</v>
+        <v>0.0001671087464811952</v>
       </c>
       <c r="N37" t="n">
-        <v>3.531772041648393e-06</v>
+        <v>3.042573060855262e-06</v>
       </c>
       <c r="O37" t="n">
-        <v>9.541157439270834e-05</v>
+        <v>9.137898252249635e-05</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0006103537301292032</v>
+        <v>0.0005815068762062683</v>
       </c>
       <c r="Q37" t="n">
-        <v>1394.428159066987</v>
+        <v>1390.550400351161</v>
       </c>
       <c r="R37" t="n">
-        <v>0.44186</v>
+        <v>0.42667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.000413693092105</v>
+        <v>1.000333348355263</v>
       </c>
       <c r="B38" t="n">
-        <v>27.72900096856725</v>
+        <v>27.5784305372807</v>
       </c>
       <c r="C38" t="n">
-        <v>2.281118009868428e-05</v>
+        <v>1.659936144919678e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01937067985862573</v>
+        <v>0.02011403124665296</v>
       </c>
       <c r="E38" t="n">
-        <v>4.408363425891448e-06</v>
+        <v>4.687724903720444e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004961717585526316</v>
+        <v>0.005094617120065789</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.448641737171062e-06</v>
+        <v>-9.277137396710535e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0006199327252021636</v>
+        <v>0.000666681843286705</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1377909963450292</v>
+        <v>0.1407702034904971</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0002113394792452482</v>
+        <v>-0.0002837198969736846</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.001918314027741228</v>
+        <v>-0.001940509604623538</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0008057321588806653</v>
+        <v>0.001012206475748768</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0001532063892772296</v>
+        <v>0.0001629781407771381</v>
       </c>
       <c r="N38" t="n">
-        <v>5.319228118238302e-06</v>
+        <v>3.531772041648393e-06</v>
       </c>
       <c r="O38" t="n">
-        <v>6.170368690385051e-05</v>
+        <v>9.541157439270834e-05</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0006286044456265899</v>
+        <v>0.0006103537301292032</v>
       </c>
       <c r="Q38" t="n">
-        <v>1398.385676840528</v>
+        <v>1394.428159066987</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4577</v>
+        <v>0.44186</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.000493396710527</v>
+        <v>1.000413693092105</v>
       </c>
       <c r="B39" t="n">
-        <v>27.87576072733918</v>
+        <v>27.72900096856725</v>
       </c>
       <c r="C39" t="n">
-        <v>1.610407931542384e-05</v>
+        <v>2.281118009868428e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01812526534139437</v>
+        <v>0.01937067985862573</v>
       </c>
       <c r="E39" t="n">
-        <v>4.141291217879277e-06</v>
+        <v>4.408363425891448e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>0.004843650286184211</v>
+        <v>0.004961717585526316</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.458720383157895e-06</v>
+        <v>-6.448641737171062e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0005846081952870431</v>
+        <v>0.0006199327252021636</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1352656783625731</v>
+        <v>0.1377909963450292</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0001336223160900952</v>
+        <v>-0.0002113394792452482</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.001886467826955409</v>
+        <v>-0.001918314027741228</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0008353382257350768</v>
+        <v>0.0008057321588806653</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0001444789325722953</v>
+        <v>0.0001532063892772296</v>
       </c>
       <c r="N39" t="n">
-        <v>7.450325533442981e-06</v>
+        <v>5.319228118238302e-06</v>
       </c>
       <c r="O39" t="n">
-        <v>3.367687714510235e-05</v>
+        <v>6.170368690385051e-05</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0006569797793328399</v>
+        <v>0.0006286044456265899</v>
       </c>
       <c r="Q39" t="n">
-        <v>1402.260850064986</v>
+        <v>1398.385676840528</v>
       </c>
       <c r="R39" t="n">
-        <v>0.47354</v>
+        <v>0.4577</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.000570055592105</v>
+        <v>1.000493396710527</v>
       </c>
       <c r="B40" t="n">
-        <v>28.01903225511696</v>
+        <v>27.87576072733918</v>
       </c>
       <c r="C40" t="n">
-        <v>8.748649323828567e-06</v>
+        <v>1.610407931542384e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01626451757556396</v>
+        <v>0.01812526534139437</v>
       </c>
       <c r="E40" t="n">
-        <v>3.9841142475625e-06</v>
+        <v>4.141291217879277e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004719070078947368</v>
+        <v>0.004843650286184211</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.667894163585534e-06</v>
+        <v>-3.458720383157895e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0005380788001016082</v>
+        <v>0.0005846081952870431</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1325034036915205</v>
+        <v>0.1352656783625731</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.00012651847344481</v>
+        <v>-0.0001336223160900952</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.00184943190369152</v>
+        <v>-0.001886467826955409</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0008339813094550073</v>
+        <v>0.0008353382257350768</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0001391186720475091</v>
+        <v>0.0001444789325722953</v>
       </c>
       <c r="N40" t="n">
-        <v>6.120405364217839e-06</v>
+        <v>7.450325533442981e-06</v>
       </c>
       <c r="O40" t="n">
-        <v>1.104631095001828e-05</v>
+        <v>3.367687714510235e-05</v>
       </c>
       <c r="P40" t="n">
-        <v>0.000664407560136166</v>
+        <v>0.0006569797793328399</v>
       </c>
       <c r="Q40" t="n">
-        <v>1406.061958191628</v>
+        <v>1402.260850064986</v>
       </c>
       <c r="R40" t="n">
-        <v>0.48938</v>
+        <v>0.47354</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.000639439802631</v>
+        <v>1.000570055592105</v>
       </c>
       <c r="B41" t="n">
-        <v>28.15916870431287</v>
+        <v>28.01903225511696</v>
       </c>
       <c r="C41" t="n">
-        <v>1.07045568622059e-05</v>
+        <v>8.748649323828567e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01404492846174543</v>
+        <v>0.01626451757556396</v>
       </c>
       <c r="E41" t="n">
-        <v>3.898452055077303e-06</v>
+        <v>3.9841142475625e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>0.004569752355263157</v>
+        <v>0.004719070078947368</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.373959543624998e-06</v>
+        <v>-2.667894163585534e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0005088383186360105</v>
+        <v>0.0005380788001016082</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1289807923062865</v>
+        <v>0.1325034036915205</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.0001654317543567252</v>
+        <v>-0.00012651847344481</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.001803847085352704</v>
+        <v>-0.00184943190369152</v>
       </c>
       <c r="L41" t="n">
-        <v>0.001024553017341</v>
+        <v>0.0008339813094550073</v>
       </c>
       <c r="M41" t="n">
-        <v>0.000135437826936366</v>
+        <v>0.0001391186720475091</v>
       </c>
       <c r="N41" t="n">
-        <v>2.264052710343571e-07</v>
+        <v>6.120405364217839e-06</v>
       </c>
       <c r="O41" t="n">
-        <v>-4.581380170376466e-06</v>
+        <v>1.104631095001828e-05</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0006812393519016812</v>
+        <v>0.000664407560136166</v>
       </c>
       <c r="Q41" t="n">
-        <v>1409.798554599708</v>
+        <v>1406.061958191628</v>
       </c>
       <c r="R41" t="n">
-        <v>0.50522</v>
+        <v>0.48938</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.000716181578947</v>
+        <v>1.000639439802631</v>
       </c>
       <c r="B42" t="n">
-        <v>28.30183625730994</v>
+        <v>28.15916870431287</v>
       </c>
       <c r="C42" t="n">
-        <v>2.603197860014839e-05</v>
+        <v>1.07045568622059e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01200549390076297</v>
+        <v>0.01404492846174543</v>
       </c>
       <c r="E42" t="n">
-        <v>3.72653653262829e-06</v>
+        <v>3.898452055077303e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004420033118421053</v>
+        <v>0.004569752355263157</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.689786744407884e-06</v>
+        <v>-3.373959543624998e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>0.000472881968071747</v>
+        <v>0.0005088383186360105</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1252658141447368</v>
+        <v>0.1289807923062865</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0001784433969261697</v>
+        <v>-0.0001654317543567252</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.001758739122076023</v>
+        <v>-0.001803847085352704</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0008542788568537755</v>
+        <v>0.001024553017341</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0001278825608550804</v>
+        <v>0.000135437826936366</v>
       </c>
       <c r="N42" t="n">
-        <v>-8.515469745138889e-06</v>
+        <v>2.264052710343571e-07</v>
       </c>
       <c r="O42" t="n">
-        <v>-7.021024132874633e-05</v>
+        <v>-4.581380170376466e-06</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0006839678649837353</v>
+        <v>0.0006812393519016812</v>
       </c>
       <c r="Q42" t="n">
-        <v>1413.612415565584</v>
+        <v>1409.798554599708</v>
       </c>
       <c r="R42" t="n">
-        <v>0.52167</v>
+        <v>0.50522</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.000787305921053</v>
+        <v>1.000716181578947</v>
       </c>
       <c r="B43" t="n">
-        <v>28.44235317982456</v>
+        <v>28.30183625730994</v>
       </c>
       <c r="C43" t="n">
-        <v>4.115218430190166e-05</v>
+        <v>2.603197860014839e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01083657668404605</v>
+        <v>0.01200549390076297</v>
       </c>
       <c r="E43" t="n">
-        <v>3.511815562407895e-06</v>
+        <v>3.72653653262829e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004290467947368421</v>
+        <v>0.004420033118421053</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.52776976129605e-06</v>
+        <v>-3.689786744407884e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0004465516974009502</v>
+        <v>0.000472881968071747</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1221770093201754</v>
+        <v>0.1252658141447368</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0001361133737682749</v>
+        <v>-0.0001784433969261697</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.001714849958552631</v>
+        <v>-0.001758739122076023</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0008970582943929092</v>
+        <v>0.0008542788568537755</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0001149204337936221</v>
+        <v>0.0001278825608550804</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.778203838598319e-05</v>
+        <v>-8.515469745138889e-06</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.0001642553372114401</v>
+        <v>-7.021024132874633e-05</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0006989053858980756</v>
+        <v>0.0006839678649837353</v>
       </c>
       <c r="Q43" t="n">
-        <v>1417.387016873341</v>
+        <v>1413.612415565584</v>
       </c>
       <c r="R43" t="n">
-        <v>0.5381199999999999</v>
+        <v>0.52167</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.000859174342105</v>
+        <v>1.000787305921053</v>
       </c>
       <c r="B44" t="n">
-        <v>28.58113293128655</v>
+        <v>28.44235317982456</v>
       </c>
       <c r="C44" t="n">
-        <v>4.520755210160809e-05</v>
+        <v>4.115218430190166e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01095650340526316</v>
+        <v>0.01083657668404605</v>
       </c>
       <c r="E44" t="n">
-        <v>3.357677833805921e-06</v>
+        <v>3.511815562407895e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>0.004166294483552632</v>
+        <v>0.004290467947368421</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.703445953940797e-06</v>
+        <v>-2.52776976129605e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0004066892087203947</v>
+        <v>0.0004465516974009502</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1192385445906433</v>
+        <v>0.1221770093201754</v>
       </c>
       <c r="J44" t="n">
-        <v>-9.986647257309967e-05</v>
+        <v>-0.0001361133737682749</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.001679105096125731</v>
+        <v>-0.001714849958552631</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0009134617261115681</v>
+        <v>0.0008970582943929092</v>
       </c>
       <c r="M44" t="n">
-        <v>9.872425417744885e-05</v>
+        <v>0.0001149204337936221</v>
       </c>
       <c r="N44" t="n">
-        <v>-2.5964228559375e-05</v>
+        <v>-1.778203838598319e-05</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.0002487563006566941</v>
+        <v>-0.0001642553372114401</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0006966045158483259</v>
+        <v>0.0006989053858980756</v>
       </c>
       <c r="Q44" t="n">
-        <v>1421.130477996505</v>
+        <v>1417.387016873341</v>
       </c>
       <c r="R44" t="n">
-        <v>0.5545600000000001</v>
+        <v>0.5381199999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.000924634868421</v>
+        <v>1.000859174342105</v>
       </c>
       <c r="B45" t="n">
-        <v>28.71807789656432</v>
+        <v>28.58113293128655</v>
       </c>
       <c r="C45" t="n">
-        <v>2.82279003965638e-05</v>
+        <v>4.520755210160809e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01245294510999635</v>
+        <v>0.01095650340526316</v>
       </c>
       <c r="E45" t="n">
-        <v>3.230781200617928e-06</v>
+        <v>3.357677833805921e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>0.004028099779605263</v>
+        <v>0.004166294483552632</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.177336422154605e-06</v>
+        <v>-1.703445953940797e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>0.000373651315911166</v>
+        <v>0.0004066892087203947</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1158672744883041</v>
+        <v>0.1192385445906433</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.000105284121381579</v>
+        <v>-9.986647257309967e-05</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.001652111601790935</v>
+        <v>-0.001679105096125731</v>
       </c>
       <c r="L45" t="n">
-        <v>0.001075226977739766</v>
+        <v>0.0009134617261115681</v>
       </c>
       <c r="M45" t="n">
-        <v>8.417447266909723e-05</v>
+        <v>9.872425417744885e-05</v>
       </c>
       <c r="N45" t="n">
-        <v>-2.905467859441703e-05</v>
+        <v>-2.5964228559375e-05</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.0002856850086835345</v>
+        <v>-0.0002487563006566941</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0006978112427446985</v>
+        <v>0.0006966045158483259</v>
       </c>
       <c r="Q45" t="n">
-        <v>1424.845699420452</v>
+        <v>1421.130477996505</v>
       </c>
       <c r="R45" t="n">
-        <v>0.57101</v>
+        <v>0.5545600000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.000990552631579</v>
+        <v>1.000924634868421</v>
       </c>
       <c r="B46" t="n">
-        <v>28.85725921052632</v>
+        <v>28.71807789656432</v>
       </c>
       <c r="C46" t="n">
-        <v>-6.153435160820927e-06</v>
+        <v>2.82279003965638e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01501472421852522</v>
+        <v>0.01245294510999635</v>
       </c>
       <c r="E46" t="n">
-        <v>3.091219871348684e-06</v>
+        <v>3.230781200617928e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003884253207236843</v>
+        <v>0.004028099779605263</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.807294399638164e-06</v>
+        <v>-2.177336422154605e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0003405319768640351</v>
+        <v>0.000373651315911166</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1122439574195906</v>
+        <v>0.1158672744883041</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.000147560840128655</v>
+        <v>-0.000105284121381579</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.00163500300255848</v>
+        <v>-0.001652111601790935</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0009614278882463633</v>
+        <v>0.001075226977739766</v>
       </c>
       <c r="M46" t="n">
-        <v>6.931903166425438e-05</v>
+        <v>8.417447266909723e-05</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.887028074894006e-05</v>
+        <v>-2.905467859441703e-05</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.0002725931699839181</v>
+        <v>-0.0002856850086835345</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0006861126052296967</v>
+        <v>0.0006978112427446985</v>
       </c>
       <c r="Q46" t="n">
-        <v>1428.639088486033</v>
+        <v>1424.845699420452</v>
       </c>
       <c r="R46" t="n">
-        <v>0.588</v>
+        <v>0.57101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.001057542763158</v>
+        <v>1.000990552631579</v>
       </c>
       <c r="B47" t="n">
-        <v>28.9937144371345</v>
+        <v>28.85725921052632</v>
       </c>
       <c r="C47" t="n">
-        <v>-3.514532259320157e-05</v>
+        <v>-6.153435160820927e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01776857175730994</v>
+        <v>0.01501472421852522</v>
       </c>
       <c r="E47" t="n">
-        <v>2.952599469967764e-06</v>
+        <v>3.091219871348684e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003769669516447369</v>
+        <v>0.003884253207236843</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.757761117236846e-06</v>
+        <v>-3.807294399638164e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0003277020756314693</v>
+        <v>0.0003405319768640351</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1094417335526316</v>
+        <v>0.1122439574195906</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.0001741920669601605</v>
+        <v>-0.000147560840128655</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.001625940587719298</v>
+        <v>-0.00163500300255848</v>
       </c>
       <c r="L47" t="n">
-        <v>0.001005071316133297</v>
+        <v>0.0009614278882463633</v>
       </c>
       <c r="M47" t="n">
-        <v>5.549821029596252e-05</v>
+        <v>6.931903166425438e-05</v>
       </c>
       <c r="N47" t="n">
-        <v>-2.946059041692252e-05</v>
+        <v>-2.887028074894006e-05</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.0002140302475012792</v>
+        <v>-0.0002725931699839181</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0006824903958136331</v>
+        <v>0.0006861126052296967</v>
       </c>
       <c r="Q47" t="n">
-        <v>1432.374151928996</v>
+        <v>1428.639088486033</v>
       </c>
       <c r="R47" t="n">
-        <v>0.6049899999999999</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.001119881735589</v>
+        <v>1.001057542763158</v>
       </c>
       <c r="B48" t="n">
-        <v>29.12722964094263</v>
+        <v>28.9937144371345</v>
       </c>
       <c r="C48" t="n">
-        <v>-5.977589672314657e-05</v>
+        <v>-3.514532259320157e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0200672820892509</v>
+        <v>0.01776857175730994</v>
       </c>
       <c r="E48" t="n">
-        <v>3.335815776689772e-06</v>
+        <v>2.952599469967764e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003668159237938597</v>
+        <v>0.003769669516447369</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.317513058035724e-06</v>
+        <v>-4.757761117236846e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0004072024833397513</v>
+        <v>0.0003277020756314693</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1069813091757171</v>
+        <v>0.1094417335526316</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.0002167353707206385</v>
+        <v>-0.0001741920669601605</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.001619270391908591</v>
+        <v>-0.001625940587719298</v>
       </c>
       <c r="L48" t="n">
-        <v>0.001025466033292628</v>
+        <v>0.001005071316133297</v>
       </c>
       <c r="M48" t="n">
-        <v>4.345962944231238e-05</v>
+        <v>5.549821029596252e-05</v>
       </c>
       <c r="N48" t="n">
-        <v>-2.682697170684958e-05</v>
+        <v>-2.946059041692252e-05</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.000139523648501462</v>
+        <v>-0.0002140302475012792</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0006875441183935533</v>
+        <v>0.0006824903958136331</v>
       </c>
       <c r="Q48" t="n">
-        <v>1436.049169124439</v>
+        <v>1432.374151928996</v>
       </c>
       <c r="R48" t="n">
-        <v>0.62197</v>
+        <v>0.6049899999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.001120867598684</v>
+        <v>1.001119881735589</v>
       </c>
       <c r="B49" t="n">
-        <v>29.12727933114035</v>
+        <v>29.12722964094263</v>
       </c>
       <c r="C49" t="n">
-        <v>3.946765133863195e-05</v>
+        <v>-5.977589672314657e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02005859539416575</v>
+        <v>0.0200672820892509</v>
       </c>
       <c r="E49" t="n">
-        <v>1.346278365542763e-07</v>
+        <v>3.335815776689772e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003666016077302632</v>
+        <v>0.003668159237938597</v>
       </c>
       <c r="G49" t="n">
-        <v>2.469893198807569e-06</v>
+        <v>-6.317513058035724e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0001768673757030108</v>
+        <v>0.0004072024833397513</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1069102887426901</v>
+        <v>0.1069813091757171</v>
       </c>
       <c r="J49" t="n">
-        <v>3.202024329541293e-05</v>
+        <v>-0.0002167353707206385</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.001607663091648392</v>
+        <v>-0.001619270391908591</v>
       </c>
       <c r="L49" t="n">
-        <v>0.00100210033373538</v>
+        <v>0.001025466033292628</v>
       </c>
       <c r="M49" t="n">
-        <v>4.068866242663788e-05</v>
+        <v>4.345962944231238e-05</v>
       </c>
       <c r="N49" t="n">
-        <v>-2.851166344640899e-05</v>
+        <v>-2.682697170684958e-05</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.0001417196608644005</v>
+        <v>-0.000139523648501462</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0005347374873103984</v>
+        <v>0.0006875441183935533</v>
       </c>
       <c r="Q49" t="n">
-        <v>1436.047540955611</v>
+        <v>1436.049169124439</v>
       </c>
       <c r="R49" t="n">
-        <v>0.62198</v>
+        <v>0.62197</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.001184078947369</v>
+        <v>1.001120867598684</v>
       </c>
       <c r="B50" t="n">
-        <v>29.2577515625</v>
+        <v>29.12727933114035</v>
       </c>
       <c r="C50" t="n">
-        <v>-3.829128850877153e-05</v>
+        <v>3.946765133863195e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02138829733826755</v>
+        <v>0.02005859539416575</v>
       </c>
       <c r="E50" t="n">
-        <v>2.688702901656745e-06</v>
+        <v>1.346278365542763e-07</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003558996179276316</v>
+        <v>0.003666016077302632</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.517436003006583e-06</v>
+        <v>2.469893198807569e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0003086098889098867</v>
+        <v>-0.0001768673757030108</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1042997069627193</v>
+        <v>0.1069102887426901</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0001638444746515259</v>
+        <v>3.202024329541293e-05</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.001602172435946637</v>
+        <v>-0.001607663091648392</v>
       </c>
       <c r="L50" t="n">
-        <v>0.001157155328264254</v>
+        <v>0.00100210033373538</v>
       </c>
       <c r="M50" t="n">
-        <v>3.242910576408991e-05</v>
+        <v>4.068866242663788e-05</v>
       </c>
       <c r="N50" t="n">
-        <v>-2.07703478445084e-05</v>
+        <v>-2.851166344640899e-05</v>
       </c>
       <c r="O50" t="n">
-        <v>-6.54580866521016e-05</v>
+        <v>-0.0001417196608644005</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0006479525091089455</v>
+        <v>0.0005347374873103984</v>
       </c>
       <c r="Q50" t="n">
-        <v>1439.65415100027</v>
+        <v>1436.047540955611</v>
       </c>
       <c r="R50" t="n">
-        <v>0.6389600000000001</v>
+        <v>0.62198</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.00123746381579</v>
+        <v>1.001184078947369</v>
       </c>
       <c r="B51" t="n">
-        <v>29.38864420687134</v>
+        <v>29.2577515625</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.109128864766008e-05</v>
+        <v>-3.829128850877153e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02140314984846491</v>
+        <v>0.02138829733826755</v>
       </c>
       <c r="E51" t="n">
-        <v>2.546994414973684e-06</v>
+        <v>2.688702901656745e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003446331986842106</v>
+        <v>0.003558996179276316</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.032463225694075e-06</v>
+        <v>-4.517436003006583e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0002966247523261696</v>
+        <v>0.0003086098889098867</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1014903130482456</v>
+        <v>0.1042997069627193</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.0001814318482145469</v>
+        <v>-0.0001638444746515259</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.001582984248903509</v>
+        <v>-0.001602172435946637</v>
       </c>
       <c r="L51" t="n">
-        <v>0.001050795533057182</v>
+        <v>0.001157155328264254</v>
       </c>
       <c r="M51" t="n">
-        <v>2.445800248733553e-05</v>
+        <v>3.242910576408991e-05</v>
       </c>
       <c r="N51" t="n">
-        <v>-1.63524707680921e-05</v>
+        <v>-2.07703478445084e-05</v>
       </c>
       <c r="O51" t="n">
-        <v>-1.814388700475147e-05</v>
+        <v>-6.54580866521016e-05</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0006203706068344298</v>
+        <v>0.0006479525091089455</v>
       </c>
       <c r="Q51" t="n">
-        <v>1443.293687675613</v>
+        <v>1439.65415100027</v>
       </c>
       <c r="R51" t="n">
-        <v>0.65642</v>
+        <v>0.6389600000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.001304710526316</v>
+        <v>1.00123746381579</v>
       </c>
       <c r="B52" t="n">
-        <v>29.51607004751462</v>
+        <v>29.38864420687134</v>
       </c>
       <c r="C52" t="n">
-        <v>9.054602083332726e-06</v>
+        <v>-2.109128864766008e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02001689776302997</v>
+        <v>0.02140314984846491</v>
       </c>
       <c r="E52" t="n">
-        <v>2.453088417934211e-06</v>
+        <v>2.546994414973684e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>0.003327249194078948</v>
+        <v>0.003446331986842106</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.206111676363819e-06</v>
+        <v>-5.032463225694075e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0002918906312240698</v>
+        <v>0.0002966247523261696</v>
       </c>
       <c r="I52" t="n">
-        <v>0.09845680058479532</v>
+        <v>0.1014903130482456</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.00019016655628655</v>
+        <v>-0.0001814318482145469</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.001558502035453217</v>
+        <v>-0.001582984248903509</v>
       </c>
       <c r="L52" t="n">
-        <v>0.001085737995265168</v>
+        <v>0.001050795533057182</v>
       </c>
       <c r="M52" t="n">
-        <v>2.112379635465808e-05</v>
+        <v>2.445800248733553e-05</v>
       </c>
       <c r="N52" t="n">
-        <v>-1.736537552211257e-05</v>
+        <v>-1.63524707680921e-05</v>
       </c>
       <c r="O52" t="n">
-        <v>3.633062021302996e-05</v>
+        <v>-1.814388700475147e-05</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0005979411516915204</v>
+        <v>0.0006203706068344298</v>
       </c>
       <c r="Q52" t="n">
-        <v>1446.835886945903</v>
+        <v>1443.293687675613</v>
       </c>
       <c r="R52" t="n">
-        <v>0.67388</v>
+        <v>0.65642</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.001353138157895</v>
+        <v>1.001304710526316</v>
       </c>
       <c r="B53" t="n">
-        <v>29.63980963084795</v>
+        <v>29.51607004751462</v>
       </c>
       <c r="C53" t="n">
-        <v>4.135538105902829e-05</v>
+        <v>9.054602083332726e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01737965036295687</v>
+        <v>0.02001689776302997</v>
       </c>
       <c r="E53" t="n">
-        <v>2.331922571633882e-06</v>
+        <v>2.453088417934211e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003193462934210526</v>
+        <v>0.003327249194078948</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.653010236950652e-06</v>
+        <v>-5.206111676363819e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0002759243925866228</v>
+        <v>0.0002918906312240698</v>
       </c>
       <c r="I53" t="n">
-        <v>0.09490385489766082</v>
+        <v>0.09845680058479532</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.0001465013850804094</v>
+        <v>-0.00019016655628655</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.00153308200749269</v>
+        <v>-0.001558502035453217</v>
       </c>
       <c r="L53" t="n">
-        <v>0.001110978944399433</v>
+        <v>0.001085737995265168</v>
       </c>
       <c r="M53" t="n">
-        <v>2.196141648894371e-05</v>
+        <v>2.112379635465808e-05</v>
       </c>
       <c r="N53" t="n">
-        <v>-1.930145454356725e-05</v>
+        <v>-1.736537552211257e-05</v>
       </c>
       <c r="O53" t="n">
-        <v>8.361736490204678e-05</v>
+        <v>3.633062021302996e-05</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0005628017703073647</v>
+        <v>0.0005979411516915204</v>
       </c>
       <c r="Q53" t="n">
-        <v>1450.301431971179</v>
+        <v>1446.835886945903</v>
       </c>
       <c r="R53" t="n">
-        <v>0.69134</v>
+        <v>0.67388</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.001417649671053</v>
+        <v>1.001353138157895</v>
       </c>
       <c r="B54" t="n">
-        <v>29.75957259685672</v>
+        <v>29.63980963084795</v>
       </c>
       <c r="C54" t="n">
-        <v>5.739564482638888e-05</v>
+        <v>4.135538105902829e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01385737380433114</v>
+        <v>0.01737965036295687</v>
       </c>
       <c r="E54" t="n">
-        <v>2.188093003511348e-06</v>
+        <v>2.331922571633882e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003035955643092106</v>
+        <v>0.003193462934210526</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.406352482549414e-07</v>
+        <v>-3.653010236950652e-06</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0002601424163302083</v>
+        <v>0.0002759243925866228</v>
       </c>
       <c r="I54" t="n">
-        <v>0.09057810324378657</v>
+        <v>0.09490385489766082</v>
       </c>
       <c r="J54" t="n">
-        <v>-4.527996124497446e-05</v>
+        <v>-0.0001465013850804094</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.001504762200383772</v>
+        <v>-0.00153308200749269</v>
       </c>
       <c r="L54" t="n">
-        <v>0.001232899777636521</v>
+        <v>0.001110978944399433</v>
       </c>
       <c r="M54" t="n">
-        <v>2.430549887440606e-05</v>
+        <v>2.196141648894371e-05</v>
       </c>
       <c r="N54" t="n">
-        <v>-2.05878360923337e-05</v>
+        <v>-1.930145454356725e-05</v>
       </c>
       <c r="O54" t="n">
-        <v>9.564909025197372e-05</v>
+        <v>8.361736490204678e-05</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0005319239780202769</v>
+        <v>0.0005628017703073647</v>
       </c>
       <c r="Q54" t="n">
-        <v>1453.649364535187</v>
+        <v>1450.301431971179</v>
       </c>
       <c r="R54" t="n">
-        <v>0.7088</v>
+        <v>0.69134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.00146122368421</v>
+        <v>1.001417649671053</v>
       </c>
       <c r="B55" t="n">
-        <v>29.87728698830409</v>
+        <v>29.75957259685672</v>
       </c>
       <c r="C55" t="n">
-        <v>5.598962949561445e-05</v>
+        <v>5.739564482638888e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.009717052072770469</v>
+        <v>0.01385737380433114</v>
       </c>
       <c r="E55" t="n">
-        <v>2.102238694021053e-06</v>
+        <v>2.188093003511348e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002847680924342106</v>
+        <v>0.003035955643092106</v>
       </c>
       <c r="G55" t="n">
-        <v>1.68169914944079e-06</v>
+        <v>-2.406352482549414e-07</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0002381805951843933</v>
+        <v>0.0002601424163302083</v>
       </c>
       <c r="I55" t="n">
-        <v>0.08526052973318712</v>
+        <v>0.09057810324378657</v>
       </c>
       <c r="J55" t="n">
-        <v>1.095412027467098e-05</v>
+        <v>-4.527996124497446e-05</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.001473978243969298</v>
+        <v>-0.001504762200383772</v>
       </c>
       <c r="L55" t="n">
-        <v>0.001168109981256213</v>
+        <v>0.001232899777636521</v>
       </c>
       <c r="M55" t="n">
-        <v>2.917700195515351e-05</v>
+        <v>2.430549887440606e-05</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.982388003055555e-05</v>
+        <v>-2.05878360923337e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0001037878506592471</v>
+        <v>9.564909025197372e-05</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0004930380244785453</v>
+        <v>0.0005319239780202769</v>
       </c>
       <c r="Q55" t="n">
-        <v>1456.967204433597</v>
+        <v>1453.649364535187</v>
       </c>
       <c r="R55" t="n">
-        <v>0.72665</v>
+        <v>0.7088</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.001517546052632</v>
+        <v>1.00146122368421</v>
       </c>
       <c r="B56" t="n">
-        <v>29.98959283625731</v>
+        <v>29.87728698830409</v>
       </c>
       <c r="C56" t="n">
-        <v>4.787677726608221e-05</v>
+        <v>5.598962949561445e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.005134871623872443</v>
+        <v>0.009717052072770469</v>
       </c>
       <c r="E56" t="n">
-        <v>2.013303966067434e-06</v>
+        <v>2.102238694021053e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002658784006578948</v>
+        <v>0.002847680924342106</v>
       </c>
       <c r="G56" t="n">
-        <v>2.433354064605263e-06</v>
+        <v>1.68169914944079e-06</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0002277150046516448</v>
+        <v>0.0002381805951843933</v>
       </c>
       <c r="I56" t="n">
-        <v>0.07988691445540935</v>
+        <v>0.08526052973318712</v>
       </c>
       <c r="J56" t="n">
-        <v>3.10929957730262e-05</v>
+        <v>1.095412027467098e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.001439987923428363</v>
+        <v>-0.001473978243969298</v>
       </c>
       <c r="L56" t="n">
-        <v>0.001213935906363304</v>
+        <v>0.001168109981256213</v>
       </c>
       <c r="M56" t="n">
-        <v>3.476170046739766e-05</v>
+        <v>2.917700195515351e-05</v>
       </c>
       <c r="N56" t="n">
-        <v>-1.780156586444627e-05</v>
+        <v>-1.982388003055555e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>8.325470890568348e-05</v>
+        <v>0.0001037878506592471</v>
       </c>
       <c r="P56" t="n">
-        <v>0.000463289071887701</v>
+        <v>0.0004930380244785453</v>
       </c>
       <c r="Q56" t="n">
-        <v>1460.128133413584</v>
+        <v>1456.967204433597</v>
       </c>
       <c r="R56" t="n">
-        <v>0.7445000000000001</v>
+        <v>0.72665</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.001559745065789</v>
+        <v>1.001517546052632</v>
       </c>
       <c r="B57" t="n">
-        <v>30.0958426991959</v>
+        <v>29.98959283625731</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0002195688464455411</v>
+        <v>4.787677726608221e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0003579151247258786</v>
+        <v>0.005134871623872443</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.80822216899671e-06</v>
+        <v>2.013303966067434e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002474865008223684</v>
+        <v>0.002658784006578948</v>
       </c>
       <c r="G57" t="n">
-        <v>9.909053035361841e-06</v>
+        <v>2.433354064605263e-06</v>
       </c>
       <c r="H57" t="n">
-        <v>-9.555732079449925e-05</v>
+        <v>0.0002277150046516448</v>
       </c>
       <c r="I57" t="n">
-        <v>0.07461924410635964</v>
+        <v>0.07988691445540935</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0002329765090460526</v>
+        <v>3.10929957730262e-05</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.001394236567982456</v>
+        <v>-0.001439987923428363</v>
       </c>
       <c r="L57" t="n">
-        <v>0.001270701004088998</v>
+        <v>0.001213935906363304</v>
       </c>
       <c r="M57" t="n">
-        <v>5.167102514391447e-05</v>
+        <v>3.476170046739766e-05</v>
       </c>
       <c r="N57" t="n">
-        <v>-1.50955275095943e-05</v>
+        <v>-1.780156586444627e-05</v>
       </c>
       <c r="O57" t="n">
-        <v>5.199044359923246e-05</v>
+        <v>8.325470890568348e-05</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0005286938565195541</v>
+        <v>0.000463289071887701</v>
       </c>
       <c r="Q57" t="n">
-        <v>1463.137018964839</v>
+        <v>1460.128133413584</v>
       </c>
       <c r="R57" t="n">
-        <v>0.76234</v>
+        <v>0.7445000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.001560136584668</v>
+        <v>1.001559745065789</v>
       </c>
       <c r="B58" t="n">
-        <v>30.09593918843758</v>
+        <v>30.0958426991959</v>
       </c>
       <c r="C58" t="n">
-        <v>2.239599526442909e-05</v>
+        <v>0.0002195688464455411</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0003554919255021616</v>
+        <v>0.0003579151247258786</v>
       </c>
       <c r="E58" t="n">
-        <v>2.235432010634296e-06</v>
+        <v>-1.80822216899671e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002474906275028604</v>
+        <v>0.002474865008223684</v>
       </c>
       <c r="G58" t="n">
-        <v>1.869224078697088e-06</v>
+        <v>9.909053035361841e-06</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0002447915670688326</v>
+        <v>-9.555732079449925e-05</v>
       </c>
       <c r="I58" t="n">
-        <v>0.07462664219425376</v>
+        <v>0.07461924410635964</v>
       </c>
       <c r="J58" t="n">
-        <v>1.199263303557252e-05</v>
+        <v>0.0002329765090460526</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.001399118096475337</v>
+        <v>-0.001394236567982456</v>
       </c>
       <c r="L58" t="n">
-        <v>0.001239782830880133</v>
+        <v>0.001270701004088998</v>
       </c>
       <c r="M58" t="n">
-        <v>3.442735804431254e-05</v>
+        <v>5.167102514391447e-05</v>
       </c>
       <c r="N58" t="n">
-        <v>-1.777130937094775e-05</v>
+        <v>-1.50955275095943e-05</v>
       </c>
       <c r="O58" t="n">
-        <v>5.6066656747372e-05</v>
+        <v>5.199044359923246e-05</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0004226092879059997</v>
+        <v>0.0005286938565195541</v>
       </c>
       <c r="Q58" t="n">
-        <v>1463.140378519441</v>
+        <v>1463.137018964839</v>
       </c>
       <c r="R58" t="n">
-        <v>0.76235</v>
+        <v>0.76234</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.001600638157895</v>
+        <v>1.001560136584668</v>
       </c>
       <c r="B59" t="n">
-        <v>30.1958350877193</v>
+        <v>30.09593918843758</v>
       </c>
       <c r="C59" t="n">
-        <v>2.776776038651287e-05</v>
+        <v>2.239599526442909e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.004232971437600513</v>
+        <v>0.0003554919255021616</v>
       </c>
       <c r="E59" t="n">
-        <v>1.775776577722204e-06</v>
+        <v>2.235432010634296e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002298435643092105</v>
+        <v>0.002474906275028604</v>
       </c>
       <c r="G59" t="n">
-        <v>2.523621469687502e-06</v>
+        <v>1.869224078697088e-06</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0002150962342032483</v>
+        <v>0.0002447915670688326</v>
       </c>
       <c r="I59" t="n">
-        <v>0.06955528252923976</v>
+        <v>0.07462664219425376</v>
       </c>
       <c r="J59" t="n">
-        <v>2.590845514893998e-05</v>
+        <v>1.199263303557252e-05</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.001343921318530702</v>
+        <v>-0.001399118096475337</v>
       </c>
       <c r="L59" t="n">
-        <v>0.001335037372283991</v>
+        <v>0.001239782830880133</v>
       </c>
       <c r="M59" t="n">
-        <v>2.892294888617507e-05</v>
+        <v>3.442735804431254e-05</v>
       </c>
       <c r="N59" t="n">
-        <v>-2.120352277246401e-05</v>
+        <v>-1.777130937094775e-05</v>
       </c>
       <c r="O59" t="n">
-        <v>4.069811980472323e-05</v>
+        <v>5.6066656747372e-05</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0004098749135100329</v>
+        <v>0.0004226092879059997</v>
       </c>
       <c r="Q59" t="n">
-        <v>1465.977352817767</v>
+        <v>1463.140378519441</v>
       </c>
       <c r="R59" t="n">
-        <v>0.7801899999999999</v>
+        <v>0.76235</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.001645203947368</v>
+        <v>1.001600638157895</v>
       </c>
       <c r="B60" t="n">
-        <v>30.29020509868421</v>
+        <v>30.1958350877193</v>
       </c>
       <c r="C60" t="n">
-        <v>2.17133767324557e-05</v>
+        <v>2.776776038651287e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.008329889315570176</v>
+        <v>-0.004232971437600513</v>
       </c>
       <c r="E60" t="n">
-        <v>1.677392249598224e-06</v>
+        <v>1.775776577722204e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002118920342105263</v>
+        <v>0.002298435643092105</v>
       </c>
       <c r="G60" t="n">
-        <v>1.815529376809212e-06</v>
+        <v>2.523621469687502e-06</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0002113856381322424</v>
+        <v>0.0002150962342032483</v>
       </c>
       <c r="I60" t="n">
-        <v>0.06431509153874268</v>
+        <v>0.06955528252923976</v>
       </c>
       <c r="J60" t="n">
-        <v>6.153814356723837e-07</v>
+        <v>2.590845514893998e-05</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.001276422718932749</v>
+        <v>-0.001343921318530702</v>
       </c>
       <c r="L60" t="n">
-        <v>0.00127376422130848</v>
+        <v>0.001335037372283991</v>
       </c>
       <c r="M60" t="n">
-        <v>1.802429892341009e-05</v>
+        <v>2.892294888617507e-05</v>
       </c>
       <c r="N60" t="n">
-        <v>-2.779406375793129e-05</v>
+        <v>-2.120352277246401e-05</v>
       </c>
       <c r="O60" t="n">
-        <v>9.927262610471489e-06</v>
+        <v>4.069811980472323e-05</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0003877385024216008</v>
+        <v>0.0004098749135100329</v>
       </c>
       <c r="Q60" t="n">
-        <v>1468.660130347061</v>
+        <v>1465.977352817767</v>
       </c>
       <c r="R60" t="n">
-        <v>0.7983399999999999</v>
+        <v>0.7801899999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.001680743421053</v>
+        <v>1.001645203947368</v>
       </c>
       <c r="B61" t="n">
-        <v>30.37674064327485</v>
+        <v>30.29020509868421</v>
       </c>
       <c r="C61" t="n">
-        <v>1.69336869042393e-05</v>
+        <v>2.17133767324557e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01158824277289839</v>
+        <v>-0.008329889315570176</v>
       </c>
       <c r="E61" t="n">
-        <v>1.609519192065789e-06</v>
+        <v>1.677392249598224e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>0.001951847109539474</v>
+        <v>0.002118920342105263</v>
       </c>
       <c r="G61" t="n">
-        <v>1.83727447519737e-06</v>
+        <v>1.815529376809212e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0002149888792487391</v>
+        <v>0.0002113856381322424</v>
       </c>
       <c r="I61" t="n">
-        <v>0.05940030944809942</v>
+        <v>0.06431509153874268</v>
       </c>
       <c r="J61" t="n">
-        <v>-4.073134323830473e-06</v>
+        <v>6.153814356723837e-07</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.001198392361659357</v>
+        <v>-0.001276422718932749</v>
       </c>
       <c r="L61" t="n">
-        <v>0.001295058375730994</v>
+        <v>0.00127376422130848</v>
       </c>
       <c r="M61" t="n">
-        <v>6.015323666288382e-06</v>
+        <v>1.802429892341009e-05</v>
       </c>
       <c r="N61" t="n">
-        <v>-3.205274841089181e-05</v>
+        <v>-2.779406375793129e-05</v>
       </c>
       <c r="O61" t="n">
-        <v>-4.200920342927631e-05</v>
+        <v>9.927262610471489e-06</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0003748550082434576</v>
+        <v>0.0003877385024216008</v>
       </c>
       <c r="Q61" t="n">
-        <v>1471.132338667992</v>
+        <v>1468.660130347061</v>
       </c>
       <c r="R61" t="n">
-        <v>0.8164899999999999</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1.0017134375</v>
-      </c>
-      <c r="B62" t="n">
-        <v>30.45499025950292</v>
-      </c>
-      <c r="C62" t="n">
-        <v>9.216711366959002e-06</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-0.01401927485201206</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1.590733358799342e-06</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.001785209925986842</v>
-      </c>
-      <c r="G62" t="n">
-        <v>2.470337560592101e-06</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.000214657870808787</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.05445304325657895</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.042894051918863e-05</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-0.001111765796052632</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.001302710487755848</v>
-      </c>
-      <c r="M62" t="n">
-        <v>-6.176328797898391e-06</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.22519796126462e-05</v>
-      </c>
-      <c r="O62" t="n">
-        <v>-9.021676608406433e-05</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.0003580708383773026</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1473.373424426466</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.8346399999999999</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1.001743847039474</v>
-      </c>
-      <c r="B63" t="n">
-        <v>30.52474567799708</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.575158525237935e-08</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.0158960528156049</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1.581215513387006e-06</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.001606077813157895</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2.511709631491772e-06</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.0002173655356415296</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.04907585200109648</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.248514856085507e-05</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-0.001015740213358918</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.001367703948921784</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-1.878631379115497e-05</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.863479256477521e-05</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-0.0001325409654999899</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0.0003433112609850402</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1475.373921096594</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0.85278</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1.001769542763158</v>
-      </c>
-      <c r="B64" t="n">
-        <v>30.58650661549708</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-9.198781111110875e-06</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.01773642264883955</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1.511026630884868e-06</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.00140432814506579</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.791433635921049e-06</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.0002170375619831872</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.04295495338084795</v>
-      </c>
-      <c r="J64" t="n">
-        <v>-4.300590759868378e-06</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-0.0009108563746345028</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.001311337959795322</v>
-      </c>
-      <c r="M64" t="n">
-        <v>-2.851297533336989e-05</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.405519331034357e-05</v>
-      </c>
-      <c r="O64" t="n">
-        <v>-0.0001599537898997441</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0.0003195558977959796</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1477.14907226203</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0.87113</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1.0017946875</v>
-      </c>
-      <c r="B65" t="n">
-        <v>30.63928170687134</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-1.806011191337693e-05</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.0201789961132913</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1.412699290884539e-06</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.001185528095723684</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3.13958559868423e-07</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.0002214823107484649</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.03628435113852339</v>
-      </c>
-      <c r="J65" t="n">
-        <v>-4.27706015131578e-05</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-0.0007984870487865496</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.00132143959868421</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-3.410677285495248e-05</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-1.845543678614766e-05</v>
-      </c>
-      <c r="O65" t="n">
-        <v>-0.0001523489813404057</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.0003009685572404422</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1478.663596163496</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.8894799999999999</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1.001812233552631</v>
-      </c>
-      <c r="B66" t="n">
-        <v>30.68304395102339</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-1.772184172149118e-05</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.02360800103552084</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1.364658505730263e-06</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.0009548335642618421</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1.179732805460521e-06</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.0002250223883167763</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.02922307574141082</v>
-      </c>
-      <c r="J66" t="n">
-        <v>-8.436626686586269e-05</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-0.0006780177010741776</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.001322584091739766</v>
-      </c>
-      <c r="M66" t="n">
-        <v>-3.654532924557747e-05</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-1.295307732853984e-05</v>
-      </c>
-      <c r="O66" t="n">
-        <v>-0.000113997211351462</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0.0002820353935796327</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1479.920678561944</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.90784</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1.001828799342105</v>
-      </c>
-      <c r="B67" t="n">
-        <v>30.71778004385965</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-3.370047189327516e-06</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.02798610303887253</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1.36126104683972e-06</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.0007175999774320888</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1.979989749169408e-06</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.0002353551256836504</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.02195214280023273</v>
-      </c>
-      <c r="J67" t="n">
-        <v>-0.000108926782096948</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-0.0005494926111142179</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.001370917822002924</v>
-      </c>
-      <c r="M67" t="n">
-        <v>-3.697042225061221e-05</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.718592958886147e-06</v>
-      </c>
-      <c r="O67" t="n">
-        <v>-6.420925785746527e-05</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0.0002711887223855354</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>1480.913498660822</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0.92619</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1.001835805921052</v>
-      </c>
-      <c r="B68" t="n">
-        <v>30.74345339912281</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1.411682228983906e-05</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.03298186487161914</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1.299094080990132e-06</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.0004811065655325658</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-2.317787935197368e-06</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0002410225052001827</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.01469635711410764</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-0.0001209887884674707</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-0.0004146313239512975</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.00132122370120614</v>
-      </c>
-      <c r="M68" t="n">
-        <v>-3.573338349872076e-05</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-5.165964852211258e-06</v>
-      </c>
-      <c r="O68" t="n">
-        <v>-3.73209065030519e-05</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0.0002606958127639803</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1481.648641542266</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0.9446399999999999</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>1.001844213815789</v>
-      </c>
-      <c r="B69" t="n">
-        <v>30.75963748172515</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1.856603251096524e-05</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.03806461156156798</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1.2816861318875e-06</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.0002538780591000658</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1.889470557029605e-06</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.0002528046319428911</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.00772189760908187</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-0.000108855207053728</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-0.0002767440658684759</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.001322868802997076</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-3.521884079155701e-05</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-6.91227255540625e-06</v>
-      </c>
-      <c r="O69" t="n">
-        <v>-3.294776904325658e-05</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.0002581918845593019</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>1482.10341587821</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.96309</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1.001848384868421</v>
-      </c>
-      <c r="B70" t="n">
-        <v>30.7662276498538</v>
-      </c>
-      <c r="C70" t="n">
-        <v>9.762613307749195e-06</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.04281557409916118</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1.288677094971053e-06</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3.064840282939473e-05</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1.046512347707235e-06</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.0002611119958810855</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.0008664500175621343</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-8.585988939510233e-05</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-0.0001366787232133589</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.001314199170321637</v>
-      </c>
-      <c r="M70" t="n">
-        <v>-3.428228456304824e-05</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-1.211285521536732e-05</v>
-      </c>
-      <c r="O70" t="n">
-        <v>-3.075985061392543e-05</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0.0002562673439986111</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1482.2798871539</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.98155</v>
+        <v>0.7983399999999999</v>
       </c>
     </row>
   </sheetData>
